--- a/materials/study_02/template.xlsx
+++ b/materials/study_02/template.xlsx
@@ -321,20 +321,21 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,6 +1267,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
@@ -1294,6 +1296,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13"/>
@@ -1321,6 +1326,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13"/>
